--- a/Descargas/R15_Corte De Apelaciones De Antofagasta_Términos Corte_2020-Diciembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Antofagasta_Términos Corte_2020-Diciembre.xlsx
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
